--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
   <si>
     <t>request</t>
   </si>
@@ -140,6 +140,186 @@
   </si>
   <si>
     <t>{"name":"Zxmdyi","job":"Fdyw","id":"470","createdAt":"2024-03-21T20:08:22.951Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Jrn","job":"Eckumwkl"}</t>
+  </si>
+  <si>
+    <t>{"name":"Jrn","job":"Eckumwkl","id":"864","createdAt":"2024-03-23T11:54:56.470Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Amc","job":"Fb"}</t>
+  </si>
+  <si>
+    <t>{"name":"Amc","job":"Fb","id":"496","createdAt":"2024-03-23T11:54:57.530Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Rl","job":"Fpeoxgs"}</t>
+  </si>
+  <si>
+    <t>{"name":"Rl","job":"Fpeoxgs","id":"724","createdAt":"2024-03-23T11:54:58.053Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Qne","job":"Qebl"}</t>
+  </si>
+  <si>
+    <t>{"name":"Qne","job":"Qebl","id":"375","createdAt":"2024-03-23T11:56:19.125Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Fs","job":"We"}</t>
+  </si>
+  <si>
+    <t>{"name":"Fs","job":"We","id":"133","createdAt":"2024-03-23T11:56:20.080Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Dbe","job":"Xexy"}</t>
+  </si>
+  <si>
+    <t>{"name":"Dbe","job":"Xexy","id":"815","createdAt":"2024-03-23T11:56:20.590Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Baeqjf","job":"Jyl"}</t>
+  </si>
+  <si>
+    <t>{"name":"Baeqjf","job":"Jyl","id":"274","createdAt":"2024-03-24T06:34:47.828Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Opxflzcv","job":"Wijysyda"}</t>
+  </si>
+  <si>
+    <t>{"name":"Opxflzcv","job":"Wijysyda","id":"709","createdAt":"2024-03-24T06:34:48.878Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Wo","job":"Whk"}</t>
+  </si>
+  <si>
+    <t>{"name":"Wo","job":"Whk","id":"607","createdAt":"2024-03-24T06:34:49.369Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Bbx","job":"Ls"}</t>
+  </si>
+  <si>
+    <t>{"name":"Bbx","job":"Ls","id":"127","createdAt":"2024-03-24T06:35:59.414Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Nad","job":"Ckg"}</t>
+  </si>
+  <si>
+    <t>{"name":"Nad","job":"Ckg","id":"647","createdAt":"2024-03-24T06:36:00.588Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Tss","job":"Rzg"}</t>
+  </si>
+  <si>
+    <t>{"name":"Tss","job":"Rzg","id":"312","createdAt":"2024-03-24T06:36:01.086Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Qdyujoux","job":"Gwxyeqos"}</t>
+  </si>
+  <si>
+    <t>{"name":"Qdyujoux","job":"Gwxyeqos","id":"240","createdAt":"2024-03-24T13:34:49.923Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Ail","job":"Dks"}</t>
+  </si>
+  <si>
+    <t>{"name":"Ail","job":"Dks","id":"471","createdAt":"2024-03-24T13:34:52.942Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Fcd","job":"Xi"}</t>
+  </si>
+  <si>
+    <t>{"name":"Fcd","job":"Xi","id":"306","createdAt":"2024-03-24T13:34:54.058Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Jqgronv","job":"Hec"}</t>
+  </si>
+  <si>
+    <t>{"name":"Jqgronv","job":"Hec","id":"959","createdAt":"2024-03-24T13:35:46.247Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Lw","job":"Obdy"}</t>
+  </si>
+  <si>
+    <t>{"name":"Lw","job":"Obdy","id":"997","createdAt":"2024-03-24T13:35:49.151Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Cgdw","job":"Aa"}</t>
+  </si>
+  <si>
+    <t>{"name":"Cgdw","job":"Aa","id":"552","createdAt":"2024-03-24T13:35:51.362Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Eai","job":"Zp"}</t>
+  </si>
+  <si>
+    <t>{"name":"Eai","job":"Zp","id":"594","createdAt":"2024-03-24T13:37:03.715Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Edlc","job":"Ae"}</t>
+  </si>
+  <si>
+    <t>{"name":"Edlc","job":"Ae","id":"369","createdAt":"2024-03-24T13:37:04.852Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Ldnw","job":"Rsxco"}</t>
+  </si>
+  <si>
+    <t>{"name":"Ldnw","job":"Rsxco","id":"229","createdAt":"2024-03-24T13:37:05.833Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Ipa","job":"Wm"}</t>
+  </si>
+  <si>
+    <t>{"name":"Ipa","job":"Wm","id":"601","createdAt":"2024-03-24T13:37:24.071Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Hc","job":"Hzrkvkqe"}</t>
+  </si>
+  <si>
+    <t>{"name":"Hc","job":"Hzrkvkqe","id":"807","createdAt":"2024-03-24T13:37:26.619Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Hj","job":"Cqbqxcnu"}</t>
+  </si>
+  <si>
+    <t>{"name":"Hj","job":"Cqbqxcnu","id":"879","createdAt":"2024-03-24T13:37:28.593Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Du","job":"Wp"}</t>
+  </si>
+  <si>
+    <t>{"name":"Du","job":"Wp","id":"306","createdAt":"2024-03-24T13:37:58.138Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Jk","job":"Ce"}</t>
+  </si>
+  <si>
+    <t>{"name":"Jk","job":"Ce","id":"139","createdAt":"2024-03-24T13:37:59.668Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Pof","job":"Pd"}</t>
+  </si>
+  <si>
+    <t>{"name":"Pof","job":"Pd","id":"867","createdAt":"2024-03-24T13:38:01.018Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Zkezlm","job":"Sqirj"}</t>
+  </si>
+  <si>
+    <t>{"name":"Zkezlm","job":"Sqirj","id":"353","createdAt":"2024-03-24T14:00:03.700Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Efbjisx","job":"Nxf"}</t>
+  </si>
+  <si>
+    <t>{"name":"Efbjisx","job":"Nxf","id":"834","createdAt":"2024-03-24T14:00:05.558Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Raqu","job":"Qehttld"}</t>
+  </si>
+  <si>
+    <t>{"name":"Raqu","job":"Qehttld","id":"406","createdAt":"2024-03-24T14:00:06.508Z"}</t>
   </si>
 </sst>
 </file>
@@ -613,10 +793,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>29</v>
@@ -630,10 +810,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>29</v>
@@ -647,10 +827,10 @@
         <v>15</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>29</v>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsing\eclipse-workspace\YonoAPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsing\eclipse-workspace\javaAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="RequestResponse" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>request</t>
   </si>
@@ -37,296 +37,102 @@
     <t>actualResponse</t>
   </si>
   <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>dataType</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>newRequest</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
     <t>Result</t>
   </si>
   <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>dataType</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>https://reqres.in/api/users</t>
-  </si>
-  <si>
-    <t>createdAt</t>
-  </si>
-  <si>
-    <t>\d{4}-\d{2}-\d{2}\w\d{2}:\d{2}:\d{2}.\d{3}\w</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>datatype</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-    "name": "Morpheus",
-    "job": "Leader"
-}
-</t>
+    <t>https://reqres.in/api/login</t>
   </si>
   <si>
     <t>{
-    "name": "Morpheus",
-    "job": "Leader",
-    "id": "114",
-    "createdAt": "2024-03-21T02:01:01.432Z"
+    "email": "eve.holt@reqres.in",
+    "password": "cityslicka"
 }</t>
   </si>
   <si>
-    <t>[A-Z]{1}[a-z]{1,7}</t>
-  </si>
-  <si>
     <t>{
-    "name": "Morpheus",
-    "job": "Leader"
+    "token": "QpwL5tke4Pnpja7X4"
 }</t>
   </si>
   <si>
-    <t>newRequest</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>{"name":"Nxg","job":"Zub"}</t>
-  </si>
-  <si>
-    <t>{"name":"Nxg","job":"Zub","id":"905","createdAt":"2024-03-21T20:07:02.687Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Pkodhk","job":"Agx"}</t>
-  </si>
-  <si>
-    <t>{"name":"Pkodhk","job":"Agx","id":"519","createdAt":"2024-03-21T20:07:04.369Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Ej","job":"Jqmbp"}</t>
-  </si>
-  <si>
-    <t>{"name":"Ej","job":"Jqmbp","id":"988","createdAt":"2024-03-21T20:07:05.673Z"}</t>
-  </si>
-  <si>
-    <t>\d{3}</t>
-  </si>
-  <si>
-    <t>{"name":"Bwwa","job":"Gxdtp"}</t>
-  </si>
-  <si>
-    <t>{"name":"Bwwa","job":"Gxdtp","id":"927","createdAt":"2024-03-21T20:08:18.265Z"}</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>{"name":"Rprt","job":"Yilx"}</t>
-  </si>
-  <si>
-    <t>{"name":"Rprt","job":"Yilx","id":"583","createdAt":"2024-03-21T20:08:21.247Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Zxmdyi","job":"Fdyw"}</t>
-  </si>
-  <si>
-    <t>{"name":"Zxmdyi","job":"Fdyw","id":"470","createdAt":"2024-03-21T20:08:22.951Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Jrn","job":"Eckumwkl"}</t>
-  </si>
-  <si>
-    <t>{"name":"Jrn","job":"Eckumwkl","id":"864","createdAt":"2024-03-23T11:54:56.470Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Amc","job":"Fb"}</t>
-  </si>
-  <si>
-    <t>{"name":"Amc","job":"Fb","id":"496","createdAt":"2024-03-23T11:54:57.530Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Rl","job":"Fpeoxgs"}</t>
-  </si>
-  <si>
-    <t>{"name":"Rl","job":"Fpeoxgs","id":"724","createdAt":"2024-03-23T11:54:58.053Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Qne","job":"Qebl"}</t>
-  </si>
-  <si>
-    <t>{"name":"Qne","job":"Qebl","id":"375","createdAt":"2024-03-23T11:56:19.125Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Fs","job":"We"}</t>
-  </si>
-  <si>
-    <t>{"name":"Fs","job":"We","id":"133","createdAt":"2024-03-23T11:56:20.080Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Dbe","job":"Xexy"}</t>
-  </si>
-  <si>
-    <t>{"name":"Dbe","job":"Xexy","id":"815","createdAt":"2024-03-23T11:56:20.590Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Baeqjf","job":"Jyl"}</t>
-  </si>
-  <si>
-    <t>{"name":"Baeqjf","job":"Jyl","id":"274","createdAt":"2024-03-24T06:34:47.828Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Opxflzcv","job":"Wijysyda"}</t>
-  </si>
-  <si>
-    <t>{"name":"Opxflzcv","job":"Wijysyda","id":"709","createdAt":"2024-03-24T06:34:48.878Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Wo","job":"Whk"}</t>
-  </si>
-  <si>
-    <t>{"name":"Wo","job":"Whk","id":"607","createdAt":"2024-03-24T06:34:49.369Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Bbx","job":"Ls"}</t>
-  </si>
-  <si>
-    <t>{"name":"Bbx","job":"Ls","id":"127","createdAt":"2024-03-24T06:35:59.414Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Nad","job":"Ckg"}</t>
-  </si>
-  <si>
-    <t>{"name":"Nad","job":"Ckg","id":"647","createdAt":"2024-03-24T06:36:00.588Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Tss","job":"Rzg"}</t>
-  </si>
-  <si>
-    <t>{"name":"Tss","job":"Rzg","id":"312","createdAt":"2024-03-24T06:36:01.086Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Qdyujoux","job":"Gwxyeqos"}</t>
-  </si>
-  <si>
-    <t>{"name":"Qdyujoux","job":"Gwxyeqos","id":"240","createdAt":"2024-03-24T13:34:49.923Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Ail","job":"Dks"}</t>
-  </si>
-  <si>
-    <t>{"name":"Ail","job":"Dks","id":"471","createdAt":"2024-03-24T13:34:52.942Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Fcd","job":"Xi"}</t>
-  </si>
-  <si>
-    <t>{"name":"Fcd","job":"Xi","id":"306","createdAt":"2024-03-24T13:34:54.058Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Jqgronv","job":"Hec"}</t>
-  </si>
-  <si>
-    <t>{"name":"Jqgronv","job":"Hec","id":"959","createdAt":"2024-03-24T13:35:46.247Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Lw","job":"Obdy"}</t>
-  </si>
-  <si>
-    <t>{"name":"Lw","job":"Obdy","id":"997","createdAt":"2024-03-24T13:35:49.151Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Cgdw","job":"Aa"}</t>
-  </si>
-  <si>
-    <t>{"name":"Cgdw","job":"Aa","id":"552","createdAt":"2024-03-24T13:35:51.362Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Eai","job":"Zp"}</t>
-  </si>
-  <si>
-    <t>{"name":"Eai","job":"Zp","id":"594","createdAt":"2024-03-24T13:37:03.715Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Edlc","job":"Ae"}</t>
-  </si>
-  <si>
-    <t>{"name":"Edlc","job":"Ae","id":"369","createdAt":"2024-03-24T13:37:04.852Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Ldnw","job":"Rsxco"}</t>
-  </si>
-  <si>
-    <t>{"name":"Ldnw","job":"Rsxco","id":"229","createdAt":"2024-03-24T13:37:05.833Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Ipa","job":"Wm"}</t>
-  </si>
-  <si>
-    <t>{"name":"Ipa","job":"Wm","id":"601","createdAt":"2024-03-24T13:37:24.071Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Hc","job":"Hzrkvkqe"}</t>
-  </si>
-  <si>
-    <t>{"name":"Hc","job":"Hzrkvkqe","id":"807","createdAt":"2024-03-24T13:37:26.619Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Hj","job":"Cqbqxcnu"}</t>
-  </si>
-  <si>
-    <t>{"name":"Hj","job":"Cqbqxcnu","id":"879","createdAt":"2024-03-24T13:37:28.593Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Du","job":"Wp"}</t>
-  </si>
-  <si>
-    <t>{"name":"Du","job":"Wp","id":"306","createdAt":"2024-03-24T13:37:58.138Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Jk","job":"Ce"}</t>
-  </si>
-  <si>
-    <t>{"name":"Jk","job":"Ce","id":"139","createdAt":"2024-03-24T13:37:59.668Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Pof","job":"Pd"}</t>
-  </si>
-  <si>
-    <t>{"name":"Pof","job":"Pd","id":"867","createdAt":"2024-03-24T13:38:01.018Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Zkezlm","job":"Sqirj"}</t>
-  </si>
-  <si>
-    <t>{"name":"Zkezlm","job":"Sqirj","id":"353","createdAt":"2024-03-24T14:00:03.700Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Efbjisx","job":"Nxf"}</t>
-  </si>
-  <si>
-    <t>{"name":"Efbjisx","job":"Nxf","id":"834","createdAt":"2024-03-24T14:00:05.558Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Raqu","job":"Qehttld"}</t>
-  </si>
-  <si>
-    <t>{"name":"Raqu","job":"Qehttld","id":"406","createdAt":"2024-03-24T14:00:06.508Z"}</t>
+    <t>{
+    "email": "peter@klaven"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "error": "Missing password"
+}</t>
+  </si>
+  <si>
+    <t>expectedStatusCode</t>
+  </si>
+  <si>
+    <t>actualStatusCode</t>
+  </si>
+  <si>
+    <t>{
+    "email": "peter1@klaven"
+}</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>janet.weaver@reqres.in</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>rajsingh</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>{"email":"janet.weaver@reqres.in","password":"rajsingh"}</t>
+  </si>
+  <si>
+    <t>{"token":"QpwL5tke4Pnpja7X2"}</t>
+  </si>
+  <si>
+    <t>{"error":"Missing password"}</t>
+  </si>
+  <si>
+    <t>reg-[A-Z]{1}[a-z]{2}[A-Z]\d[a-z]{3}\d[A-Z]{1}[a-z]{4}\d[A-Z]{1}\d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -336,8 +142,9 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF17C6A3"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -360,20 +167,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -754,91 +560,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.5546875"/>
-    <col min="2" max="2" customWidth="true" width="16.88671875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="26.109375"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="71.6640625"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>400</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>400</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -847,104 +676,83 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="A3" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.5546875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>12</v>
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>16</v>
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>16</v>
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.5546875"/>
-    <col min="2" max="2" customWidth="true" width="37.5546875"/>
-    <col min="3" max="3" customWidth="true" width="23.6640625"/>
-    <col min="16384" max="16384" customWidth="true" width="11.5546875"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="16384" max="16384" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s" s="0">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>26</v>
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
         <v>13</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
